--- a/Pipe_sizing_A.xlsx
+++ b/Pipe_sizing_A.xlsx
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
